--- a/WIP/Users/LucPT/FAP_TestViewpoint_PersonalPage_v1.0_EN.xlsx
+++ b/WIP/Users/LucPT/FAP_TestViewpoint_PersonalPage_v1.0_EN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin-pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\2015SUMJS01\WIP\Users\LucPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -988,52 +988,51 @@
     <t>Display timeline</t>
   </si>
   <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Timeline page is displayed</t>
+  </si>
+  <si>
+    <t>Click "Timeline"  in homepage</t>
+  </si>
+  <si>
+    <t>Display news feed</t>
+  </si>
+  <si>
+    <t>News Feed</t>
+  </si>
+  <si>
+    <t>Click "News feed"  in homepage</t>
+  </si>
+  <si>
+    <t>Redirect user to News Feed page</t>
+  </si>
+  <si>
+    <t>FLY AWAY PLUS</t>
+  </si>
+  <si>
+    <t>FAP</t>
+  </si>
+  <si>
+    <t>LucPTSE02923</t>
+  </si>
+  <si>
+    <t>15/7/2015</t>
+  </si>
+  <si>
+    <t>FAP_Software requirement specification_v1.0</t>
+  </si>
+  <si>
+    <t>FAP_TestViewpoint_Edit profile_v1.0_EN</t>
+  </si>
+  <si>
     <t>Check display:
--Browser: Firefox, Chrome, IE</t>
-  </si>
-  <si>
-    <t>Timeline</t>
-  </si>
-  <si>
-    <t>Timeline page is displayed</t>
-  </si>
-  <si>
-    <t>Click "Timeline"  in homepage</t>
+-Browser: Firefox, Chrome</t>
   </si>
   <si>
     <t>- Display full item
-- Display header, footer, suggest bar, activity panel
-- Text's color is black</t>
-  </si>
-  <si>
-    <t>Display news feed</t>
-  </si>
-  <si>
-    <t>News Feed</t>
-  </si>
-  <si>
-    <t>Click "News feed"  in homepage</t>
-  </si>
-  <si>
-    <t>Redirect user to News Feed page</t>
-  </si>
-  <si>
-    <t>FLY AWAY PLUS</t>
-  </si>
-  <si>
-    <t>FAP</t>
-  </si>
-  <si>
-    <t>LucPTSE02923</t>
-  </si>
-  <si>
-    <t>15/7/2015</t>
-  </si>
-  <si>
-    <t>FAP_Software requirement specification_v1.0</t>
-  </si>
-  <si>
-    <t>FAP_TestViewpoint_Edit profile_v1.0_EN</t>
+- Display header, footer, suggest bar, activity panel</t>
   </si>
 </sst>
 </file>
@@ -3030,6 +3029,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3050,24 +3067,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6168,14 +6167,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6190,57 +6189,57 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="C4" s="110" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="C5" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="C6" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6263,10 +6262,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6282,12 +6281,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6296,13 +6295,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6310,8 +6309,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6319,8 +6318,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6328,8 +6327,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6337,8 +6336,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6346,8 +6345,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6355,6 +6354,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6362,12 +6367,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6383,8 +6382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6574,7 +6573,7 @@
         <v>37</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L9" s="59" t="s">
         <v>130</v>
@@ -6605,7 +6604,7 @@
         <v>40</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6654,7 +6653,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6666,10 +6665,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="25.5" customHeight="1">
@@ -6681,7 +6680,7 @@
       <c r="D14" s="60"/>
       <c r="E14" s="61"/>
       <c r="F14" s="51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -6700,7 +6699,7 @@
       <c r="E15" s="63"/>
       <c r="F15" s="56"/>
       <c r="G15" s="56" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6712,10 +6711,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1">
